--- a/planilhas/icr01.xlsx
+++ b/planilhas/icr01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Faculdade\IC-GRAFOS\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB178DD9-F4F1-4D82-B7B4-F674C145B8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07983370-F739-470D-B936-976FA4FDC2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PORTAS_CORE" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Porta</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>TX4/RX4</t>
+  </si>
+  <si>
+    <t>Fonte</t>
+  </si>
+  <si>
+    <t>ICR01</t>
   </si>
 </sst>
 </file>
@@ -433,252 +439,271 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E996"/>
+  <dimension ref="A1:F996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="A7:F12"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="2">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
         <v>37</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="3:3" ht="15.75" customHeight="1">
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="3:3" ht="12.75">
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="3:3" ht="12.75">
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="3:3" ht="12.75">
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="3:3" ht="12.75">
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="3:3" ht="12.75">
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="3:3" ht="12.75">
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="3:3" ht="12.75">
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="3:3" ht="12.75">
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="3:3" ht="12.75">
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="3:3" ht="12.75">
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="3:3" ht="12.75">
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="3:3" ht="12.75">
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="3:3" ht="12.75">
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="3:3" ht="12.75">
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="3:3" ht="12.75">
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="3:3" ht="12.75">
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="3:3" ht="12.75">
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:5" ht="12.75">
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:5" ht="12.75">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="4:4" ht="12.75">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="4:4" ht="12.75">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="4:4" ht="12.75">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="4:4" ht="12.75">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="4:4" ht="12.75">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="4:4" ht="12.75">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="4:4" ht="12.75">
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="4:4" ht="12.75">
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="4:4" ht="12.75">
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="4:4" ht="12.75">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="4:4" ht="12.75">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="4:4" ht="12.75">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="4:4" ht="12.75">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="4:4" ht="12.75">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="4:4" ht="12.75">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="4:4" ht="12.75">
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="4:4" ht="12.75">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" ht="12.75">
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" ht="12.75">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="1:5" ht="12.75"/>
-    <row r="52" spans="1:5" ht="12.75"/>
-    <row r="53" spans="1:5" ht="12.75"/>
-    <row r="54" spans="1:5" ht="12.75"/>
-    <row r="55" spans="1:5" ht="12.75"/>
-    <row r="56" spans="1:5" ht="12.75"/>
-    <row r="57" spans="1:5" ht="12.75"/>
-    <row r="58" spans="1:5" ht="12.75"/>
-    <row r="59" spans="1:5" ht="12.75"/>
-    <row r="60" spans="1:5" ht="12.75"/>
-    <row r="61" spans="1:5" ht="12.75"/>
-    <row r="62" spans="1:5" ht="12.75"/>
-    <row r="63" spans="1:5" ht="12.75"/>
-    <row r="64" spans="1:5" ht="12.75"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" ht="12.75"/>
+    <row r="52" spans="1:6" ht="12.75"/>
+    <row r="53" spans="1:6" ht="12.75"/>
+    <row r="54" spans="1:6" ht="12.75"/>
+    <row r="55" spans="1:6" ht="12.75"/>
+    <row r="56" spans="1:6" ht="12.75"/>
+    <row r="57" spans="1:6" ht="12.75"/>
+    <row r="58" spans="1:6" ht="12.75"/>
+    <row r="59" spans="1:6" ht="12.75"/>
+    <row r="60" spans="1:6" ht="12.75"/>
+    <row r="61" spans="1:6" ht="12.75"/>
+    <row r="62" spans="1:6" ht="12.75"/>
+    <row r="63" spans="1:6" ht="12.75"/>
+    <row r="64" spans="1:6" ht="12.75"/>
     <row r="65" ht="12.75"/>
     <row r="66" ht="12.75"/>
     <row r="67" ht="12.75"/>
